--- a/template/caseTemplate.xlsx
+++ b/template/caseTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用例\_模板\v3\debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用例\_模板\v3\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E7E50D-C3A8-46DE-8D37-79A56C5635DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7381E41C-7640-428D-8326-F9E4A4917DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="Android" sheetId="12" r:id="rId4"/>
     <sheet name="IOS" sheetId="15" r:id="rId5"/>
     <sheet name="数据统计" sheetId="4" r:id="rId6"/>
-    <sheet name="config" sheetId="3" r:id="rId7"/>
-    <sheet name="dataTemp" sheetId="5" r:id="rId8"/>
-    <sheet name="log" sheetId="11" r:id="rId9"/>
+    <sheet name="config" sheetId="3" state="hidden" r:id="rId7"/>
+    <sheet name="dataTemp" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="log" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="xx">#REF!</definedName>
@@ -19786,7 +19786,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38089,7 +38089,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -47290,7 +47290,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -56559,7 +56559,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -56948,7 +56948,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -57283,7 +57283,7 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -59228,7 +59228,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
